--- a/Solo/Assets/4.Arts/Table/ItemMonsterTable.xlsx
+++ b/Solo/Assets/4.Arts/Table/ItemMonsterTable.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="20475" windowHeight="8070"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,10 +40,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Equipment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>잡템1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -93,6 +89,26 @@
   </si>
   <si>
     <t>BeginnerModule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Module</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초급 실드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeginnerShield</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -450,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -484,13 +500,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -498,13 +514,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -512,13 +528,13 @@
         <v>100000</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -526,13 +542,13 @@
         <v>100001</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -540,13 +556,13 @@
         <v>200000</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -554,13 +570,27 @@
         <v>210000</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>220000</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Solo/Assets/4.Arts/Table/ItemMonsterTable.xlsx
+++ b/Solo/Assets/4.Arts/Table/ItemMonsterTable.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,6 +109,22 @@
   </si>
   <si>
     <t>BeginnerShield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -466,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -478,10 +494,12 @@
     <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -494,8 +512,20 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -508,8 +538,20 @@
       <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -522,8 +564,20 @@
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>100000</v>
       </c>
@@ -536,8 +590,20 @@
       <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="E4" s="1">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>100001</v>
       </c>
@@ -550,8 +616,20 @@
       <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>200000</v>
       </c>
@@ -564,8 +642,20 @@
       <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>100</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>210000</v>
       </c>
@@ -578,8 +668,20 @@
       <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>50</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>220000</v>
       </c>
@@ -591,6 +693,18 @@
       </c>
       <c r="D8" s="1" t="s">
         <v>23</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Solo/Assets/4.Arts/Table/ItemMonsterTable.xlsx
+++ b/Solo/Assets/4.Arts/Table/ItemMonsterTable.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,18 +80,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>초급 모듈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BeginnerSword</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BeginnerModule</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Weapon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -100,18 +92,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>초급 실드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Shield</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BeginnerShield</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -125,6 +109,62 @@
   </si>
   <si>
     <t>ATD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초급 목걸이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초급 인형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초급 퓨즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초급 부스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초급 실린더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중급 퓨즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeginnerFuse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeginnerBoostere</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beginnercylinder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SeniorFuse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초급 반지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeginnerRing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeginnerNecklace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeginnerDoll</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -482,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -513,16 +553,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -637,10 +677,10 @@
         <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -657,16 +697,16 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>210000</v>
+        <v>211000</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -683,16 +723,16 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>220000</v>
+        <v>212000</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -701,9 +741,139 @@
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>213000</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>50</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>211100</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>100</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>221000</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>222000</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>223000</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
         <v>50</v>
       </c>
     </row>
